--- a/exp/stim/stim_g2_e1.xlsx
+++ b/exp/stim/stim_g2_e1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/stim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E3837E-2E4E-DE4B-B5AF-631FA49C043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8864C3-1FDD-CD4C-8467-12FAE04CC400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="720" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="g2_exp1" sheetId="18" r:id="rId1"/>
@@ -596,12 +596,6 @@
     <t>correct_key</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>image_dir</t>
   </si>
   <si>
@@ -981,6 +975,12 @@
   </si>
   <si>
     <t>sent_code</t>
+  </si>
+  <si>
+    <t>rshift</t>
+  </si>
+  <si>
+    <t>lshift</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CDE209-4973-7044-9D34-CE5A4F00CCC6}">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1633,22 +1633,22 @@
         <v>122</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>120</v>
@@ -1657,10 +1657,10 @@
         <v>121</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>182</v>
@@ -1675,10 +1675,10 @@
         <v>185</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -1716,22 +1716,22 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -1769,19 +1769,19 @@
         <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -1820,19 +1820,19 @@
         <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1871,19 +1871,19 @@
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -1922,19 +1922,19 @@
         <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -1973,19 +1973,19 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" t="s">
         <v>201</v>
-      </c>
-      <c r="M7" t="s">
-        <v>203</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -2024,19 +2024,19 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -2075,19 +2075,19 @@
         <v>47</v>
       </c>
       <c r="L9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -2126,19 +2126,19 @@
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
@@ -2177,19 +2177,19 @@
         <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -2228,19 +2228,19 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" t="s">
         <v>199</v>
-      </c>
-      <c r="M12" t="s">
-        <v>201</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -2279,19 +2279,19 @@
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
@@ -2330,19 +2330,19 @@
         <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
@@ -2381,19 +2381,19 @@
         <v>50</v>
       </c>
       <c r="L15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
@@ -2432,19 +2432,19 @@
         <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
@@ -2483,19 +2483,19 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
@@ -2534,19 +2534,19 @@
         <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
@@ -2585,19 +2585,19 @@
         <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
@@ -2636,19 +2636,19 @@
         <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
@@ -2687,19 +2687,19 @@
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
@@ -2738,19 +2738,19 @@
         <v>57</v>
       </c>
       <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="s">
         <v>218</v>
-      </c>
-      <c r="M22" t="s">
-        <v>220</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
@@ -2789,19 +2789,19 @@
         <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
@@ -2840,19 +2840,19 @@
         <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
@@ -2891,19 +2891,19 @@
         <v>55</v>
       </c>
       <c r="L25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
@@ -2942,19 +2942,19 @@
         <v>123</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
@@ -2993,19 +2993,19 @@
         <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -3044,19 +3044,19 @@
         <v>60</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
@@ -3095,19 +3095,19 @@
         <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -3146,19 +3146,19 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
@@ -3197,19 +3197,19 @@
         <v>54</v>
       </c>
       <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="s">
         <v>227</v>
-      </c>
-      <c r="M31" t="s">
-        <v>229</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
@@ -3248,19 +3248,19 @@
         <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q32" s="1"/>
     </row>
@@ -3299,19 +3299,19 @@
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q33" s="1"/>
     </row>
@@ -3350,19 +3350,19 @@
         <v>62</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
@@ -3401,19 +3401,19 @@
         <v>60</v>
       </c>
       <c r="L35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
@@ -3452,19 +3452,19 @@
         <v>5</v>
       </c>
       <c r="L36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
@@ -3503,19 +3503,19 @@
         <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
@@ -3554,19 +3554,19 @@
         <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q38" s="1"/>
     </row>
@@ -3605,19 +3605,19 @@
         <v>11</v>
       </c>
       <c r="L39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q39" s="1"/>
     </row>
@@ -3656,19 +3656,19 @@
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="1"/>
     </row>
@@ -3707,19 +3707,19 @@
         <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
@@ -3758,19 +3758,19 @@
         <v>9</v>
       </c>
       <c r="L42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="1"/>
     </row>
@@ -3809,19 +3809,19 @@
         <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>18</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
@@ -3860,19 +3860,19 @@
         <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P44" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="1"/>
     </row>
@@ -3911,19 +3911,19 @@
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P45" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
@@ -3962,19 +3962,19 @@
         <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M46" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="P46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
@@ -4013,19 +4013,19 @@
         <v>38</v>
       </c>
       <c r="L47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="P47" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
@@ -4064,19 +4064,19 @@
         <v>30</v>
       </c>
       <c r="L48" t="s">
+        <v>239</v>
+      </c>
+      <c r="M48" t="s">
         <v>241</v>
-      </c>
-      <c r="M48" t="s">
-        <v>243</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
@@ -4115,19 +4115,19 @@
         <v>28</v>
       </c>
       <c r="L49" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
@@ -4166,19 +4166,19 @@
         <v>38</v>
       </c>
       <c r="L50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -4217,19 +4217,19 @@
         <v>8</v>
       </c>
       <c r="L51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P51" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q51" s="1"/>
     </row>
@@ -4268,19 +4268,19 @@
         <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P52" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q52" s="1"/>
     </row>
@@ -4319,19 +4319,19 @@
         <v>12</v>
       </c>
       <c r="L53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q53" s="1"/>
     </row>
@@ -4370,19 +4370,19 @@
         <v>40</v>
       </c>
       <c r="L54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M54" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
@@ -4421,19 +4421,19 @@
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>186</v>
+        <v>314</v>
       </c>
       <c r="P55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q55" s="1"/>
     </row>
@@ -4472,19 +4472,19 @@
         <v>37</v>
       </c>
       <c r="L56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="P56" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q56" s="1"/>
     </row>

--- a/exp/stim/stim_g2_e1.xlsx
+++ b/exp/stim/stim_g2_e1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/stim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8864C3-1FDD-CD4C-8467-12FAE04CC400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4505AE-FCEF-7346-B807-55FBAFAB2419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="314">
   <si>
     <t>t</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>../image/belt.png</t>
-  </si>
-  <si>
-    <t>../image/books.png</t>
   </si>
   <si>
     <t>../image/chair.png</t>
@@ -1610,8 +1607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CDE209-4973-7044-9D34-CE5A4F00CCC6}">
   <dimension ref="A1:Q111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O56"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="113" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,6 +1622,8 @@
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="15" width="9.83203125" customWidth="1"/>
   </cols>
@@ -1633,22 +1633,22 @@
         <v>122</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>310</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>311</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>120</v>
@@ -1725,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>188</v>
@@ -1778,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -1829,10 +1829,10 @@
         <v>50</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1880,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -1931,10 +1931,10 @@
         <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -1982,10 +1982,10 @@
         <v>19</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -2021,22 +2021,22 @@
         <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
         <v>205</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -2084,10 +2084,10 @@
         <v>58</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -2135,10 +2135,10 @@
         <v>15</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="1"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -2237,10 +2237,10 @@
         <v>19</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -2288,10 +2288,10 @@
         <v>13</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
@@ -2339,10 +2339,10 @@
         <v>17</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="1"/>
     </row>
@@ -2390,10 +2390,10 @@
         <v>16</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="1"/>
     </row>
@@ -2441,10 +2441,10 @@
         <v>4</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="1"/>
     </row>
@@ -2492,10 +2492,10 @@
         <v>126</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
@@ -2543,10 +2543,10 @@
         <v>24</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="1"/>
     </row>
@@ -2594,10 +2594,10 @@
         <v>56</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="1"/>
     </row>
@@ -2645,10 +2645,10 @@
         <v>44</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
@@ -2696,10 +2696,10 @@
         <v>59</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>57</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
@@ -2798,10 +2798,10 @@
         <v>125</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
@@ -2849,10 +2849,10 @@
         <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
@@ -2903,7 +2903,7 @@
         <v>313</v>
       </c>
       <c r="P25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
@@ -2951,10 +2951,10 @@
         <v>123</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
@@ -3005,7 +3005,7 @@
         <v>313</v>
       </c>
       <c r="P27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -3047,16 +3047,16 @@
         <v>225</v>
       </c>
       <c r="M28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>60</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
@@ -3107,7 +3107,7 @@
         <v>313</v>
       </c>
       <c r="P29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -3155,10 +3155,10 @@
         <v>22</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q30" s="1"/>
     </row>
@@ -3209,7 +3209,7 @@
         <v>313</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
@@ -3257,10 +3257,10 @@
         <v>37</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="1"/>
     </row>
@@ -3311,7 +3311,7 @@
         <v>313</v>
       </c>
       <c r="P33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q33" s="1"/>
     </row>
@@ -3353,16 +3353,16 @@
         <v>237</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="1"/>
     </row>
@@ -3404,7 +3404,7 @@
         <v>201</v>
       </c>
       <c r="M35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>15</v>
@@ -3413,7 +3413,7 @@
         <v>313</v>
       </c>
       <c r="P35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="1"/>
     </row>
@@ -3461,10 +3461,10 @@
         <v>5</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q36" s="1"/>
     </row>
@@ -3515,7 +3515,7 @@
         <v>313</v>
       </c>
       <c r="P37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q37" s="1"/>
     </row>
@@ -3563,10 +3563,10 @@
         <v>4</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q38" s="1"/>
     </row>
@@ -3617,7 +3617,7 @@
         <v>313</v>
       </c>
       <c r="P39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="1"/>
     </row>
@@ -3665,10 +3665,10 @@
         <v>39</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="1"/>
     </row>
@@ -3719,7 +3719,7 @@
         <v>313</v>
       </c>
       <c r="P41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="1"/>
     </row>
@@ -3767,10 +3767,10 @@
         <v>9</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="1"/>
     </row>
@@ -3821,7 +3821,7 @@
         <v>313</v>
       </c>
       <c r="P43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>5</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q44" s="1"/>
     </row>
@@ -3923,7 +3923,7 @@
         <v>313</v>
       </c>
       <c r="P45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q45" s="1"/>
     </row>
@@ -3971,10 +3971,10 @@
         <v>41</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
@@ -4025,7 +4025,7 @@
         <v>313</v>
       </c>
       <c r="P47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
@@ -4073,10 +4073,10 @@
         <v>30</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q48" s="1"/>
     </row>
@@ -4124,10 +4124,10 @@
         <v>42</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
@@ -4175,10 +4175,10 @@
         <v>38</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -4226,10 +4226,10 @@
         <v>15</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P51" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q51" s="1"/>
     </row>
@@ -4277,10 +4277,10 @@
         <v>27</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q52" s="1"/>
     </row>
@@ -4328,10 +4328,10 @@
         <v>30</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P53" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q53" s="1"/>
     </row>
@@ -4379,10 +4379,10 @@
         <v>40</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q54" s="1"/>
     </row>
@@ -4430,10 +4430,10 @@
         <v>41</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q55" s="1"/>
     </row>
@@ -4481,10 +4481,10 @@
         <v>37</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q56" s="1"/>
     </row>
